--- a/PolicyReminderProject/data/PolicyHolders.xlsx
+++ b/PolicyReminderProject/data/PolicyHolders.xlsx
@@ -74,10 +74,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" width="5.2898876404"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="8.5898876404"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="10.7898876404"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="9.6898876404"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="16.2898876404"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.0898876404"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="18.4898876404"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="12.9898876404"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.7898876404"/>
   </cols>
   <sheetData>
@@ -119,27 +119,27 @@
       </c>
       <c r="B2" s="0" t="inlineStr">
         <is>
-          <t>Galen</t>
+          <t>Garik</t>
         </is>
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>Treamayne</t>
+          <t>Hollyar</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E2" s="0" t="inlineStr">
         <is>
-          <t>2/19/2019</t>
+          <t>5/31/2019</t>
         </is>
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>$319.02</t>
+          <t>$554.60</t>
         </is>
       </c>
     </row>
@@ -149,27 +149,27 @@
       </c>
       <c r="B3" s="0" t="inlineStr">
         <is>
-          <t>Joy</t>
+          <t>Xever</t>
         </is>
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>Broadbear</t>
+          <t>Strathern</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>2/17/2019</t>
+          <t>9/1/2018</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t>$1994.03</t>
+          <t>$954.43</t>
         </is>
       </c>
     </row>
@@ -179,27 +179,27 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Kelcey</t>
         </is>
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>Sinyard</t>
+          <t>Rimer</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>2/6/2019</t>
+          <t>9/18/2018</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>$1929.91</t>
+          <t>$1652.21</t>
         </is>
       </c>
     </row>
@@ -209,27 +209,27 @@
       </c>
       <c r="B5" s="0" t="inlineStr">
         <is>
-          <t>Arabela</t>
+          <t>Doloritas</t>
         </is>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Loughrey</t>
+          <t>Purshouse</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>11/28/2018</t>
+          <t>2/14/2019</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>$698.90</t>
+          <t>$125.57</t>
         </is>
       </c>
     </row>
@@ -239,27 +239,27 @@
       </c>
       <c r="B6" s="0" t="inlineStr">
         <is>
-          <t>Lonnie</t>
+          <t>Elonore</t>
         </is>
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>Spruce</t>
+          <t>Bott</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>1/4/2019</t>
+          <t>6/7/2019</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>$1197.03</t>
+          <t>$1327.31</t>
         </is>
       </c>
     </row>
@@ -269,27 +269,27 @@
       </c>
       <c r="B7" s="0" t="inlineStr">
         <is>
-          <t>Ramsey</t>
+          <t>Felipa</t>
         </is>
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>Klimt</t>
+          <t>Banasevich</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>4/17/2019</t>
+          <t>1/6/2019</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>$1608.31</t>
+          <t>$1659.34</t>
         </is>
       </c>
     </row>
@@ -299,27 +299,27 @@
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>Peg</t>
+          <t>Kellsie</t>
         </is>
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>Cruddas</t>
+          <t>Delany</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>12/28/2018</t>
+          <t>7/15/2018</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>$1900.98</t>
+          <t>$196.54</t>
         </is>
       </c>
     </row>
@@ -329,27 +329,27 @@
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>Rhianon</t>
+          <t>Nevsa</t>
         </is>
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>McFadyen</t>
+          <t>McLagan</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>9/1/2018</t>
+          <t>5/24/2019</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t>$1780.28</t>
+          <t>$1595.87</t>
         </is>
       </c>
     </row>
@@ -359,27 +359,27 @@
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>Edy</t>
+          <t>Andromache</t>
         </is>
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>Kerrich</t>
+          <t>Tourmell</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>12/23/2018</t>
+          <t>9/1/2018</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
         <is>
-          <t>$915.75</t>
+          <t>$1998.94</t>
         </is>
       </c>
     </row>
@@ -389,27 +389,27 @@
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>Mireielle</t>
+          <t>Elvira</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>Filipyev</t>
+          <t>Callinan</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>i.your.empress@gmail.com</t>
+          <t>uidummyworker@gmail.com</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>11/20/2018</t>
+          <t>6/9/2019</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t>$555.38</t>
+          <t>$994.98</t>
         </is>
       </c>
     </row>
